--- a/Book3.xlsx
+++ b/Book3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devil\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devil\Desktop\major1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51E8772-4EB1-4BCB-B7F7-B0C331A54C94}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D697BD-B057-4056-8984-006CBE7CD1ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43F43F1E-D6C1-44C9-A18D-AB702AF742EC}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>s.no</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>body3</t>
+  </si>
+  <si>
+    <t>label</t>
   </si>
 </sst>
 </file>
@@ -420,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388B94AD-9EC7-4EB9-BED3-717910FCDACB}">
-  <dimension ref="A1:K411"/>
+  <dimension ref="A1:L411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +434,7 @@
     <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,8 +468,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -504,8 +510,11 @@
         <f>F2-E2</f>
         <v>0.42000000000000171</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -540,8 +549,11 @@
       <c r="K3">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -576,8 +588,11 @@
       <c r="K4">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -612,8 +627,11 @@
       <c r="K5">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -640,18 +658,21 @@
         <v>-0.92000000000000171</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I3:I66" si="1">D6-C6</f>
+        <f t="shared" ref="I6:I61" si="1">D6-C6</f>
         <v>0.28999999999999915</v>
       </c>
       <c r="J6">
         <v>0.92</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K3:K66" si="2">F6-E6</f>
+        <f t="shared" ref="K6:K61" si="2">F6-E6</f>
         <v>0.78000000000000114</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -688,8 +709,11 @@
         <f t="shared" si="2"/>
         <v>0.53999999999999915</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -724,8 +748,11 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -762,8 +789,11 @@
         <f t="shared" si="2"/>
         <v>0.69000000000000483</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -794,15 +824,18 @@
         <v>0.16000000000000369</v>
       </c>
       <c r="J10">
-        <f t="shared" ref="J3:J66" si="3">C10-F10</f>
+        <f t="shared" ref="J10:J61" si="3">C10-F10</f>
         <v>1.8599999999999994</v>
       </c>
       <c r="K10">
         <f t="shared" si="2"/>
         <v>0.82999999999999829</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -837,8 +870,11 @@
       <c r="K11">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -873,8 +909,11 @@
       <c r="K12">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -909,8 +948,11 @@
       <c r="K13">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -948,8 +990,11 @@
         <f t="shared" si="2"/>
         <v>1.480000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -987,8 +1032,11 @@
         <f t="shared" si="2"/>
         <v>0.11999999999999744</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1026,8 +1074,11 @@
         <f t="shared" si="2"/>
         <v>0.39000000000000057</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1065,8 +1116,11 @@
         <f t="shared" si="2"/>
         <v>1.0600000000000023</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1101,8 +1155,11 @@
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1137,8 +1194,11 @@
       <c r="K19">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1176,8 +1236,11 @@
         <f t="shared" si="2"/>
         <v>0.57000000000000028</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1212,8 +1275,11 @@
       <c r="K21">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1248,8 +1314,11 @@
       <c r="K22">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1284,8 +1353,11 @@
       <c r="K23">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1323,8 +1395,11 @@
         <f t="shared" si="2"/>
         <v>1.1799999999999997</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1362,8 +1437,11 @@
         <f t="shared" si="2"/>
         <v>0.30999999999999517</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1401,8 +1479,11 @@
         <f t="shared" si="2"/>
         <v>0.46999999999999886</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1440,8 +1521,11 @@
         <f t="shared" si="2"/>
         <v>6.9999999999993179E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1476,8 +1560,11 @@
       <c r="K28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1512,8 +1599,11 @@
       <c r="K29">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1551,8 +1641,11 @@
         <f t="shared" si="2"/>
         <v>0.13999999999999346</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1587,8 +1680,11 @@
       <c r="K31">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1626,8 +1722,11 @@
         <f t="shared" si="2"/>
         <v>0.20000000000000284</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1662,8 +1761,11 @@
       <c r="K33">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1701,8 +1803,11 @@
         <f t="shared" si="2"/>
         <v>0.36999999999999744</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1740,8 +1845,11 @@
         <f t="shared" si="2"/>
         <v>0.37000000000000455</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1776,8 +1884,11 @@
       <c r="K36">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1812,8 +1923,11 @@
       <c r="K37">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1848,8 +1962,11 @@
       <c r="K38">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1887,8 +2004,11 @@
         <f t="shared" si="2"/>
         <v>0.71000000000000796</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1923,8 +2043,11 @@
       <c r="K40">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1959,8 +2082,11 @@
       <c r="K41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1995,8 +2121,11 @@
       <c r="K42">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2034,8 +2163,11 @@
         <f t="shared" si="2"/>
         <v>0.25999999999999801</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2070,8 +2202,11 @@
       <c r="K44">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2106,8 +2241,11 @@
       <c r="K45">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2145,8 +2283,11 @@
         <f t="shared" si="2"/>
         <v>0.27000000000000313</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2184,8 +2325,11 @@
         <f t="shared" si="2"/>
         <v>7.0000000000000284E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2223,8 +2367,11 @@
         <f t="shared" si="2"/>
         <v>0.32999999999999829</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2259,8 +2406,11 @@
       <c r="K49">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2295,8 +2445,11 @@
       <c r="K50">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2334,8 +2487,11 @@
         <f t="shared" si="2"/>
         <v>1.1199999999999974</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2370,8 +2526,11 @@
       <c r="K52">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2409,8 +2568,11 @@
         <f t="shared" si="2"/>
         <v>0.17999999999999972</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2448,8 +2610,11 @@
         <f t="shared" si="2"/>
         <v>0.31000000000000227</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2487,8 +2652,11 @@
         <f t="shared" si="2"/>
         <v>0.12000000000000455</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2523,8 +2691,11 @@
       <c r="K56">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2559,8 +2730,11 @@
       <c r="K57">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2595,8 +2769,11 @@
       <c r="K58">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2634,8 +2811,11 @@
         <f t="shared" si="2"/>
         <v>0.93000000000000682</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2673,8 +2853,11 @@
         <f t="shared" si="2"/>
         <v>0.39999999999999147</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2712,8 +2895,11 @@
         <f t="shared" si="2"/>
         <v>0.27000000000001023</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2748,8 +2934,11 @@
       <c r="K62">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2784,8 +2973,11 @@
       <c r="K63">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2820,8 +3012,11 @@
       <c r="K64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2856,8 +3051,11 @@
       <c r="K65">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2892,8 +3090,11 @@
       <c r="K66">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2920,19 +3121,22 @@
         <v>-1.5999999999999943</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I130" si="5">D67-C67</f>
+        <f t="shared" ref="I67:I129" si="5">D67-C67</f>
         <v>0</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="6">C67-F67</f>
+        <f t="shared" ref="J67:J129" si="6">C67-F67</f>
         <v>1.5999999999999943</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K130" si="7">F67-E67</f>
+        <f t="shared" ref="K67:K129" si="7">F67-E67</f>
         <v>0.40000000000000568</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2967,8 +3171,11 @@
       <c r="K68">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3006,8 +3213,11 @@
         <f t="shared" si="7"/>
         <v>0.67000000000000171</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3042,8 +3252,11 @@
       <c r="K70">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3081,8 +3294,11 @@
         <f t="shared" si="7"/>
         <v>0.46999999999999886</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3117,8 +3333,11 @@
       <c r="K72">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3156,8 +3375,11 @@
         <f t="shared" si="7"/>
         <v>0.28999999999999204</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3192,8 +3414,11 @@
       <c r="K74">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3228,8 +3453,11 @@
       <c r="K75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3264,8 +3492,11 @@
       <c r="K76">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3303,8 +3534,11 @@
         <f t="shared" si="7"/>
         <v>0.15999999999999659</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3339,8 +3573,11 @@
       <c r="K78">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3378,8 +3615,11 @@
         <f t="shared" si="7"/>
         <v>0.46999999999999886</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3414,8 +3654,11 @@
       <c r="K80">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3453,8 +3696,11 @@
         <f t="shared" si="7"/>
         <v>0.39000000000000057</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3489,8 +3735,11 @@
       <c r="K82">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3528,8 +3777,11 @@
         <f t="shared" si="7"/>
         <v>0.48000000000000398</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3564,8 +3816,11 @@
       <c r="K84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3600,8 +3855,11 @@
       <c r="K85">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3639,8 +3897,11 @@
         <f t="shared" si="7"/>
         <v>0.39000000000000057</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3675,8 +3936,11 @@
       <c r="K87">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3711,8 +3975,11 @@
       <c r="K88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3750,8 +4017,11 @@
         <f t="shared" si="7"/>
         <v>0.45000000000000284</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3789,8 +4059,11 @@
         <f t="shared" si="7"/>
         <v>0.62999999999999545</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3825,8 +4098,11 @@
       <c r="K91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3861,8 +4137,11 @@
       <c r="K92">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3900,8 +4179,11 @@
         <f t="shared" si="7"/>
         <v>0.70999999999999375</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3939,8 +4221,11 @@
         <f t="shared" si="7"/>
         <v>9.0000000000003411E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3975,8 +4260,11 @@
       <c r="K95">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4011,8 +4299,11 @@
       <c r="K96">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4047,8 +4338,11 @@
       <c r="K97">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4086,8 +4380,11 @@
         <f t="shared" si="7"/>
         <v>0.14999999999999147</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4122,8 +4419,11 @@
       <c r="K99">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4158,8 +4458,11 @@
       <c r="K100">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4194,8 +4497,11 @@
       <c r="K101">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4230,8 +4536,11 @@
       <c r="K102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4269,8 +4578,11 @@
         <f t="shared" si="7"/>
         <v>0.75999999999999091</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4305,8 +4617,11 @@
       <c r="K104">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4341,8 +4656,11 @@
       <c r="K105">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4377,8 +4695,11 @@
       <c r="K106">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4416,8 +4737,11 @@
         <f t="shared" si="7"/>
         <v>0.18999999999999773</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4455,8 +4779,11 @@
         <f t="shared" si="7"/>
         <v>0.21999999999999886</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4491,8 +4818,11 @@
       <c r="K109">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4527,8 +4857,11 @@
       <c r="K110">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4563,8 +4896,11 @@
       <c r="K111">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4599,8 +4935,11 @@
       <c r="K112">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4635,8 +4974,11 @@
       <c r="K113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4671,8 +5013,11 @@
       <c r="K114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4710,8 +5055,11 @@
         <f t="shared" si="7"/>
         <v>0.61999999999999744</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4746,8 +5094,11 @@
       <c r="K116">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L116">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4785,8 +5136,11 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L117">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4821,8 +5175,11 @@
       <c r="K118">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4860,8 +5217,11 @@
         <f t="shared" si="7"/>
         <v>0.25999999999999801</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4899,8 +5259,11 @@
         <f t="shared" si="7"/>
         <v>1.4200000000000017</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4935,8 +5298,11 @@
       <c r="K121">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L121">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4974,8 +5340,11 @@
         <f t="shared" si="7"/>
         <v>0.46999999999999886</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5011,8 +5380,11 @@
         <f t="shared" si="7"/>
         <v>0.61999999999999744</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L123">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5047,8 +5419,11 @@
       <c r="K124">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5086,8 +5461,11 @@
         <f t="shared" si="7"/>
         <v>0.44999999999999574</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L125">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5122,8 +5500,11 @@
       <c r="K126">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5158,8 +5539,11 @@
       <c r="K127">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L127">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5197,8 +5581,11 @@
         <f t="shared" si="7"/>
         <v>0.61999999999999744</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L128">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5236,8 +5623,11 @@
         <f t="shared" si="7"/>
         <v>0.88000000000000256</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5272,8 +5662,11 @@
       <c r="K130">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5308,8 +5701,11 @@
       <c r="K131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L131">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5344,8 +5740,11 @@
       <c r="K132">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L132">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5380,8 +5779,11 @@
       <c r="K133">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5408,19 +5810,22 @@
         <v>-1.259999999999998</v>
       </c>
       <c r="I134">
-        <f t="shared" ref="I131:I194" si="9">D134-C134</f>
+        <f t="shared" ref="I134:I190" si="9">D134-C134</f>
         <v>0.49000000000000199</v>
       </c>
       <c r="J134">
-        <f t="shared" ref="J131:J194" si="10">C134-F134</f>
+        <f t="shared" ref="J134:J190" si="10">C134-F134</f>
         <v>1.259999999999998</v>
       </c>
       <c r="K134">
-        <f t="shared" ref="K131:K194" si="11">F134-E134</f>
+        <f t="shared" ref="K134:K190" si="11">F134-E134</f>
         <v>0.30000000000000426</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5458,8 +5863,11 @@
         <f t="shared" si="11"/>
         <v>0.42999999999999972</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5494,8 +5902,11 @@
       <c r="K136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5530,8 +5941,11 @@
       <c r="K137">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5566,8 +5980,11 @@
       <c r="K138">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5602,8 +6019,11 @@
       <c r="K139">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5638,8 +6058,11 @@
       <c r="K140">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L140">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5674,8 +6097,11 @@
       <c r="K141">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5713,8 +6139,11 @@
         <f t="shared" si="11"/>
         <v>0.99000000000000199</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5752,8 +6181,11 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L143">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5788,8 +6220,11 @@
       <c r="K144">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L144">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5827,8 +6262,11 @@
         <f t="shared" si="11"/>
         <v>5.0000000000004263E-2</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5866,8 +6304,11 @@
         <f t="shared" si="11"/>
         <v>0.64000000000000057</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L146">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5905,8 +6346,11 @@
         <f t="shared" si="11"/>
         <v>0.39999999999999858</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L147">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5944,8 +6388,11 @@
         <f t="shared" si="11"/>
         <v>0.28999999999999915</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L148">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5983,8 +6430,11 @@
         <f t="shared" si="11"/>
         <v>0.18999999999999773</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6022,8 +6472,11 @@
         <f t="shared" si="11"/>
         <v>0.32000000000000028</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L150">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6058,8 +6511,11 @@
       <c r="K151">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L151">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6094,8 +6550,11 @@
       <c r="K152">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L152">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6133,8 +6592,11 @@
         <f t="shared" si="11"/>
         <v>0.21999999999999886</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L153">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6169,8 +6631,11 @@
       <c r="K154">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6208,8 +6673,11 @@
         <f t="shared" si="11"/>
         <v>1.8100000000000023</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L155">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6244,8 +6712,11 @@
       <c r="K156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L156">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6283,8 +6754,11 @@
         <f t="shared" si="11"/>
         <v>1.0100000000000051</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L157">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6319,8 +6793,11 @@
       <c r="K158">
         <v>1.19</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L158">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6358,8 +6835,11 @@
         <f t="shared" si="11"/>
         <v>0.10000000000000142</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L159">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -6394,8 +6874,11 @@
       <c r="K160">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L160">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -6433,8 +6916,11 @@
         <f t="shared" si="11"/>
         <v>0.67000000000000171</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L161">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -6472,8 +6958,11 @@
         <f t="shared" si="11"/>
         <v>0.22000000000000597</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -6508,8 +6997,11 @@
       <c r="K163">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L163">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -6547,8 +7039,11 @@
         <f t="shared" si="11"/>
         <v>0.60999999999999943</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L164">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6583,8 +7078,11 @@
       <c r="K165">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L165">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6622,8 +7120,11 @@
         <f t="shared" si="11"/>
         <v>0.53000000000000114</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L166">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6661,8 +7162,11 @@
         <f t="shared" si="11"/>
         <v>0.45000000000000284</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L167">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6700,8 +7204,11 @@
         <f t="shared" si="11"/>
         <v>0.30000000000001137</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6739,8 +7246,11 @@
         <f t="shared" si="11"/>
         <v>0.43000000000000682</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L169">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6778,8 +7288,11 @@
         <f t="shared" si="11"/>
         <v>0.34999999999999432</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L170">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6817,8 +7330,11 @@
         <f t="shared" si="11"/>
         <v>0.10999999999999943</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L171">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6856,8 +7372,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L172">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6895,8 +7414,11 @@
         <f t="shared" si="11"/>
         <v>0.98999999999999488</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L173">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6934,8 +7456,11 @@
         <f t="shared" si="11"/>
         <v>0.21999999999999886</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L174">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6970,8 +7495,11 @@
       <c r="K175">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L175">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -7006,8 +7534,11 @@
       <c r="K176">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -7045,8 +7576,11 @@
         <f t="shared" si="11"/>
         <v>0.23000000000000398</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L177">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -7081,8 +7615,11 @@
       <c r="K178">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L178">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -7120,8 +7657,11 @@
         <f t="shared" si="11"/>
         <v>0.57999999999999829</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L179">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -7159,8 +7699,11 @@
         <f t="shared" si="11"/>
         <v>1.0400000000000063</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L180">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -7195,8 +7738,11 @@
       <c r="K181">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L181">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -7234,8 +7780,11 @@
         <f t="shared" si="11"/>
         <v>0.85999999999999943</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L182">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -7270,8 +7819,11 @@
       <c r="K183">
         <v>1.03</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L183">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -7309,8 +7861,11 @@
         <f t="shared" si="11"/>
         <v>0.46999999999999886</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L184">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -7348,8 +7903,11 @@
         <f t="shared" si="11"/>
         <v>0.26000000000000512</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L185">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -7384,8 +7942,11 @@
       <c r="K186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L186">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -7423,8 +7984,11 @@
         <f t="shared" si="11"/>
         <v>3.9999999999992042E-2</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L187">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -7462,8 +8026,11 @@
         <f t="shared" si="11"/>
         <v>0.68999999999999773</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L188">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -7498,8 +8065,11 @@
       <c r="K189">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L189">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -7537,8 +8107,11 @@
         <f t="shared" si="11"/>
         <v>0.24000000000000909</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L190">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -7573,8 +8146,11 @@
       <c r="K191">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L191">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -7609,8 +8185,11 @@
       <c r="K192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L192">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -7645,8 +8224,11 @@
       <c r="K193">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L193">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -7681,8 +8263,11 @@
       <c r="K194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L194">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -7720,8 +8305,11 @@
         <f t="shared" ref="K195:K258" si="15">F195-E195</f>
         <v>9.9999999999994316E-2</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L195">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -7756,8 +8344,11 @@
       <c r="K196">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L196">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -7792,8 +8383,11 @@
       <c r="K197">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L197">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -7831,8 +8425,11 @@
         <f t="shared" si="15"/>
         <v>0.65999999999999659</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L198">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -7870,8 +8467,11 @@
         <f t="shared" si="15"/>
         <v>0.50999999999999091</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L199">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -7906,8 +8506,11 @@
       <c r="K200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L200">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -7942,8 +8545,11 @@
       <c r="K201">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L201">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -7978,8 +8584,11 @@
       <c r="K202">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L202">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -8017,8 +8626,11 @@
         <f t="shared" si="15"/>
         <v>0.95999999999999375</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L203">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -8056,8 +8668,11 @@
         <f t="shared" si="15"/>
         <v>0.18000000000000682</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L204">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -8092,8 +8707,11 @@
       <c r="K205">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L205">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -8128,8 +8746,11 @@
       <c r="K206">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L206">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -8164,8 +8785,11 @@
       <c r="K207">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L207">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -8203,8 +8827,11 @@
         <f t="shared" si="15"/>
         <v>0.11999999999999034</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L208">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -8239,8 +8866,11 @@
       <c r="K209">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L209">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -8275,8 +8905,11 @@
       <c r="K210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L210">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -8311,8 +8944,11 @@
       <c r="K211">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L211">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -8347,8 +8983,11 @@
       <c r="K212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L212">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -8383,8 +9022,11 @@
       <c r="K213">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L213">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -8419,8 +9061,11 @@
       <c r="K214">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L214">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -8455,8 +9100,11 @@
       <c r="K215">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L215">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -8494,8 +9142,11 @@
         <f t="shared" si="15"/>
         <v>0.46000000000000796</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L216">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -8533,8 +9184,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L217">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -8569,8 +9223,11 @@
       <c r="K218">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L218">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -8608,8 +9265,11 @@
         <f t="shared" si="15"/>
         <v>0.49000000000000909</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L219">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -8644,8 +9304,11 @@
       <c r="K220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L220">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -8680,8 +9343,11 @@
       <c r="K221">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L221">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -8716,8 +9382,11 @@
       <c r="K222">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L222">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -8755,8 +9424,11 @@
         <f t="shared" si="15"/>
         <v>0.37999999999999545</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L223">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -8794,8 +9466,11 @@
         <f t="shared" si="15"/>
         <v>0.29000000000000625</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L224">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -8830,8 +9505,11 @@
       <c r="K225">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L225">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -8869,8 +9547,11 @@
         <f t="shared" si="15"/>
         <v>0.46999999999999886</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L226">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -8905,8 +9586,11 @@
       <c r="K227">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L227">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -8941,8 +9625,11 @@
       <c r="K228">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L228">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -8977,8 +9664,11 @@
       <c r="K229">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L229">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -9013,8 +9703,11 @@
       <c r="K230">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L230">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -9052,8 +9745,11 @@
         <f t="shared" si="15"/>
         <v>0.65000000000000568</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L231">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -9088,8 +9784,11 @@
       <c r="K232">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L232">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -9127,8 +9826,11 @@
         <f t="shared" si="15"/>
         <v>0.23000000000000398</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L233">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -9163,8 +9865,11 @@
       <c r="K234">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L234">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -9199,8 +9904,11 @@
       <c r="K235">
         <v>1.39</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L235">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -9238,8 +9946,11 @@
         <f t="shared" si="15"/>
         <v>1.0100000000000051</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L236">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -9274,8 +9985,11 @@
       <c r="K237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L237">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -9310,8 +10024,11 @@
       <c r="K238">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L238">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -9349,8 +10066,11 @@
         <f t="shared" si="15"/>
         <v>0.70999999999999375</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L239">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -9388,8 +10108,11 @@
         <f t="shared" si="15"/>
         <v>0.18999999999999773</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L240">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -9424,8 +10147,11 @@
       <c r="K241">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L241">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -9460,8 +10186,11 @@
       <c r="K242">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L242">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -9499,8 +10228,11 @@
         <f t="shared" si="15"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L243">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -9535,8 +10267,11 @@
       <c r="K244">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L244">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -9571,8 +10306,11 @@
       <c r="K245">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L245">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -9607,8 +10345,11 @@
       <c r="K246">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L246">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -9646,8 +10387,11 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L247">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -9682,8 +10426,11 @@
       <c r="K248">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L248">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -9721,8 +10468,11 @@
         <f t="shared" si="15"/>
         <v>0.43000000000000682</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L249">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -9760,8 +10510,11 @@
         <f t="shared" si="15"/>
         <v>0.12000000000000455</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L250">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -9799,8 +10552,11 @@
         <f t="shared" si="15"/>
         <v>0.56999999999999318</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L251">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -9835,8 +10591,11 @@
       <c r="K252">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L252">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -9874,8 +10633,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L253">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -9913,8 +10675,11 @@
         <f t="shared" si="15"/>
         <v>9.9999999999994316E-2</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L254">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -9949,8 +10714,11 @@
       <c r="K255">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L255">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -9988,8 +10756,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L256">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -10024,8 +10795,11 @@
       <c r="K257">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L257">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -10063,8 +10837,11 @@
         <f t="shared" si="15"/>
         <v>0.20000000000000284</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L258">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -10099,8 +10876,11 @@
       <c r="K259">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L259">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -10135,8 +10915,11 @@
       <c r="K260">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L260">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -10163,19 +10946,22 @@
         <v>-0.39999999999999147</v>
       </c>
       <c r="I261">
-        <f t="shared" ref="I259:I322" si="17">D261-C261</f>
+        <f t="shared" ref="I261:I321" si="17">D261-C261</f>
         <v>0.35999999999999943</v>
       </c>
       <c r="J261">
-        <f t="shared" ref="J259:J322" si="18">C261-F261</f>
+        <f t="shared" ref="J261:J321" si="18">C261-F261</f>
         <v>0.39999999999999147</v>
       </c>
       <c r="K261">
-        <f t="shared" ref="K259:K322" si="19">F261-E261</f>
+        <f t="shared" ref="K261:K321" si="19">F261-E261</f>
         <v>1.1099999999999994</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L261">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -10213,8 +10999,11 @@
         <f t="shared" si="19"/>
         <v>0.11999999999999034</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L262">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -10252,8 +11041,11 @@
         <f t="shared" si="19"/>
         <v>0.18999999999999773</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L263">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -10288,8 +11080,11 @@
       <c r="K264">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L264">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -10327,8 +11122,11 @@
         <f t="shared" si="19"/>
         <v>0.83000000000001251</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L265">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -10366,8 +11164,11 @@
         <f t="shared" si="19"/>
         <v>0.78000000000000114</v>
       </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L266">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -10405,8 +11206,11 @@
         <f t="shared" si="19"/>
         <v>9.9999999999994316E-2</v>
       </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L267">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -10444,8 +11248,11 @@
         <f t="shared" si="19"/>
         <v>0.20999999999999375</v>
       </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L268">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -10480,8 +11287,11 @@
       <c r="K269">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L269">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -10519,8 +11329,11 @@
         <f t="shared" si="19"/>
         <v>0.26000000000000512</v>
       </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L270">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -10555,8 +11368,11 @@
       <c r="K271">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L271">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -10591,8 +11407,11 @@
       <c r="K272">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L272">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -10629,8 +11448,11 @@
       <c r="K273">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L273">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -10665,8 +11487,11 @@
       <c r="K274">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L274">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -10704,8 +11529,11 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L275">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -10740,8 +11568,11 @@
       <c r="K276">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L276">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -10776,8 +11607,11 @@
       <c r="K277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L277">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -10812,8 +11646,11 @@
       <c r="K278">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L278">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -10848,8 +11685,11 @@
       <c r="K279">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L279">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -10884,8 +11724,11 @@
       <c r="K280">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L280">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -10923,8 +11766,11 @@
         <f t="shared" si="19"/>
         <v>0.56000000000000227</v>
       </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L281">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -10959,8 +11805,11 @@
       <c r="K282">
         <v>1.03</v>
       </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L282">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -10998,8 +11847,11 @@
         <f t="shared" si="19"/>
         <v>0.13000000000000966</v>
       </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L283">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -11034,8 +11886,11 @@
       <c r="K284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L284">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -11073,8 +11928,11 @@
         <f t="shared" si="19"/>
         <v>0.12999999999999545</v>
       </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L285">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -11109,8 +11967,11 @@
       <c r="K286">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L286">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -11145,8 +12006,11 @@
       <c r="K287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L287">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -11184,8 +12048,11 @@
         <f t="shared" si="19"/>
         <v>0.39999999999999147</v>
       </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L288">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -11220,8 +12087,11 @@
       <c r="K289">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L289">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -11256,8 +12126,11 @@
       <c r="K290">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L290">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -11292,8 +12165,11 @@
       <c r="K291">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L291">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -11328,8 +12204,11 @@
       <c r="K292">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L292">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -11364,8 +12243,11 @@
       <c r="K293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L293">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -11403,8 +12285,11 @@
         <f t="shared" si="19"/>
         <v>9.9999999999994316E-2</v>
       </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L294">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -11439,8 +12324,11 @@
       <c r="K295">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L295">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -11475,8 +12363,11 @@
       <c r="K296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L296">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -11514,8 +12405,11 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L297">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -11550,8 +12444,11 @@
       <c r="K298">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L298">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -11589,8 +12486,11 @@
         <f t="shared" si="19"/>
         <v>6.0000000000002274E-2</v>
       </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L299">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -11628,8 +12528,11 @@
         <f t="shared" si="19"/>
         <v>0.31999999999999318</v>
       </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L300">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -11664,8 +12567,11 @@
       <c r="K301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L301">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -11703,8 +12609,11 @@
         <f t="shared" si="19"/>
         <v>0.20999999999999375</v>
       </c>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L302">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -11739,8 +12648,11 @@
       <c r="K303">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L303">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -11775,8 +12687,11 @@
       <c r="K304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L304">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -11811,8 +12726,11 @@
       <c r="K305">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L305">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -11847,8 +12765,11 @@
       <c r="K306">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L306">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -11883,8 +12804,11 @@
       <c r="K307">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L307">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -11922,8 +12846,11 @@
         <f t="shared" si="19"/>
         <v>0.62999999999999545</v>
       </c>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L308">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -11961,8 +12888,11 @@
         <f t="shared" si="19"/>
         <v>0.68999999999999773</v>
       </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L309">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -11997,8 +12927,11 @@
       <c r="K310">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L310">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -12036,8 +12969,11 @@
         <f t="shared" si="19"/>
         <v>0.39000000000000057</v>
       </c>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L311">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -12075,8 +13011,11 @@
         <f t="shared" si="19"/>
         <v>0.64999999999999858</v>
       </c>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L312">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -12111,8 +13050,11 @@
       <c r="K313">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L313">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -12147,8 +13089,11 @@
       <c r="K314">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L314">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -12186,8 +13131,11 @@
         <f t="shared" si="19"/>
         <v>0.97000000000000597</v>
       </c>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L315">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -12225,8 +13173,11 @@
         <f t="shared" si="19"/>
         <v>9.9999999999994316E-2</v>
       </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L316">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -12264,8 +13215,11 @@
         <f t="shared" si="19"/>
         <v>0.12000000000000455</v>
       </c>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L317">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -12300,8 +13254,11 @@
       <c r="K318">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L318">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -12336,8 +13293,11 @@
       <c r="K319">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L319">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -12372,8 +13332,11 @@
       <c r="K320">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L320">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -12411,8 +13374,11 @@
         <f t="shared" si="19"/>
         <v>0.23000000000000398</v>
       </c>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L321">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -12447,8 +13413,11 @@
       <c r="K322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L322">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -12483,8 +13452,11 @@
       <c r="K323">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L323">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -12519,8 +13491,11 @@
       <c r="K324">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L324">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -12547,19 +13522,22 @@
         <v>-1.6400000000000006</v>
       </c>
       <c r="I325">
-        <f t="shared" ref="I323:I386" si="21">D325-C325</f>
+        <f t="shared" ref="I325:I384" si="21">D325-C325</f>
         <v>0.40000000000000568</v>
       </c>
       <c r="J325">
-        <f t="shared" ref="J323:J386" si="22">C325-F325</f>
+        <f t="shared" ref="J325:J384" si="22">C325-F325</f>
         <v>1.6400000000000006</v>
       </c>
       <c r="K325">
-        <f t="shared" ref="K323:K386" si="23">F325-E325</f>
+        <f t="shared" ref="K325:K384" si="23">F325-E325</f>
         <v>0.78999999999999915</v>
       </c>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L325">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -12597,8 +13575,11 @@
         <f t="shared" si="23"/>
         <v>9.0000000000003411E-2</v>
       </c>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L326">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -12636,8 +13617,11 @@
         <f t="shared" si="23"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L327">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -12672,8 +13656,11 @@
       <c r="K328">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L328">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -12711,8 +13698,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L329">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -12750,8 +13740,11 @@
         <f t="shared" si="23"/>
         <v>0.23000000000000398</v>
       </c>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L330">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -12786,8 +13779,11 @@
       <c r="K331">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L331">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -12822,8 +13818,11 @@
       <c r="K332">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L332">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -12861,8 +13860,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L333">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -12900,8 +13902,11 @@
         <f t="shared" si="23"/>
         <v>0.28000000000000114</v>
       </c>
-    </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L334">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -12936,8 +13941,11 @@
       <c r="K335">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L335">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -12975,8 +13983,11 @@
         <f t="shared" si="23"/>
         <v>0.10999999999999943</v>
       </c>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L336">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -13011,8 +14022,11 @@
       <c r="K337">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L337">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -13047,8 +14061,11 @@
       <c r="K338">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L338">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -13083,8 +14100,11 @@
       <c r="K339">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L339">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -13122,8 +14142,11 @@
         <f t="shared" si="23"/>
         <v>0.40999999999999659</v>
       </c>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L340">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -13161,8 +14184,11 @@
         <f t="shared" si="23"/>
         <v>0.28000000000000114</v>
       </c>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L341">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -13200,8 +14226,11 @@
         <f t="shared" si="23"/>
         <v>0.43999999999999773</v>
       </c>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L342">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -13236,8 +14265,11 @@
       <c r="K343">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L343">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -13272,8 +14304,11 @@
       <c r="K344">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L344">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -13311,8 +14346,11 @@
         <f t="shared" si="23"/>
         <v>0.31999999999999318</v>
       </c>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L345">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -13347,8 +14385,11 @@
       <c r="K346">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L346">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -13383,8 +14424,11 @@
       <c r="K347">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L347">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -13422,8 +14466,11 @@
         <f t="shared" si="23"/>
         <v>0.40999999999999659</v>
       </c>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L348">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -13458,8 +14505,11 @@
       <c r="K349">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L349">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -13494,8 +14544,11 @@
       <c r="K350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L350">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -13530,8 +14583,11 @@
       <c r="K351">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L351">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -13569,8 +14625,11 @@
         <f t="shared" si="23"/>
         <v>6.0000000000002274E-2</v>
       </c>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L352">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -13605,8 +14664,11 @@
       <c r="K353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L353">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -13641,8 +14703,11 @@
       <c r="K354">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L354">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -13677,8 +14742,11 @@
       <c r="K355">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L355">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -13713,8 +14781,11 @@
       <c r="K356">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L356">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -13749,8 +14820,11 @@
       <c r="K357">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L357">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -13785,8 +14859,11 @@
       <c r="K358">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L358">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -13823,8 +14900,11 @@
       <c r="K359">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L359">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -13859,8 +14939,11 @@
       <c r="K360">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L360">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -13898,8 +14981,11 @@
         <f t="shared" si="23"/>
         <v>0.25999999999999801</v>
       </c>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L361">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -13937,8 +15023,11 @@
         <f t="shared" si="23"/>
         <v>0.71999999999999886</v>
       </c>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L362">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -13973,8 +15062,11 @@
       <c r="K363">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L363">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -14009,8 +15101,11 @@
       <c r="K364">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L364">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -14045,8 +15140,11 @@
       <c r="K365">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L365">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -14084,8 +15182,11 @@
         <f t="shared" si="23"/>
         <v>7.0000000000000284E-2</v>
       </c>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L366">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -14120,8 +15221,11 @@
       <c r="K367">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L367">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -14159,8 +15263,11 @@
         <f t="shared" si="23"/>
         <v>7.9999999999998295E-2</v>
       </c>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L368">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -14195,8 +15302,11 @@
       <c r="K369">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L369">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -14234,8 +15344,11 @@
         <f t="shared" si="23"/>
         <v>0.12999999999999545</v>
       </c>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L370">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -14273,8 +15386,11 @@
         <f t="shared" si="23"/>
         <v>0.21000000000000085</v>
       </c>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L371">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -14309,8 +15425,11 @@
       <c r="K372">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L372">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -14345,8 +15464,11 @@
       <c r="K373">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L373">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -14381,8 +15503,11 @@
       <c r="K374">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L374">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -14417,8 +15542,11 @@
       <c r="K375">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L375">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -14456,8 +15584,11 @@
         <f t="shared" si="23"/>
         <v>0.68999999999999773</v>
       </c>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L376">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -14492,8 +15623,11 @@
       <c r="K377">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L377">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -14531,8 +15665,11 @@
         <f t="shared" si="23"/>
         <v>6.0000000000002274E-2</v>
       </c>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L378">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -14567,8 +15704,11 @@
       <c r="K379">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L379">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -14606,8 +15746,11 @@
         <f t="shared" si="23"/>
         <v>8.9999999999996305E-2</v>
       </c>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L380">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -14645,8 +15788,11 @@
         <f t="shared" si="23"/>
         <v>0.46999999999999886</v>
       </c>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L381">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -14684,8 +15830,11 @@
         <f t="shared" si="23"/>
         <v>0.26999999999999602</v>
       </c>
-    </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L382">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -14720,8 +15869,11 @@
       <c r="K383">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L383">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -14759,8 +15911,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L384">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -14795,8 +15950,11 @@
       <c r="K385">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L385">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -14831,8 +15989,11 @@
       <c r="K386">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L386">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -14867,8 +16028,11 @@
       <c r="K387">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L387">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -14895,19 +16059,22 @@
         <v>-0.71000000000000085</v>
       </c>
       <c r="I388">
-        <f t="shared" ref="I387:I397" si="25">D388-C388</f>
+        <f t="shared" ref="I388:I397" si="25">D388-C388</f>
         <v>0.53000000000000114</v>
       </c>
       <c r="J388">
-        <f t="shared" ref="J387:J397" si="26">C388-F388</f>
+        <f t="shared" ref="J388:J397" si="26">C388-F388</f>
         <v>0.71000000000000085</v>
       </c>
       <c r="K388">
-        <f t="shared" ref="K387:K397" si="27">F388-E388</f>
+        <f t="shared" ref="K388:K397" si="27">F388-E388</f>
         <v>0.39999999999999858</v>
       </c>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L388">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -14942,8 +16109,11 @@
       <c r="K389">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L389">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -14981,8 +16151,11 @@
         <f t="shared" si="27"/>
         <v>0.35000000000000142</v>
       </c>
-    </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L390">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -15017,8 +16190,11 @@
       <c r="K391">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L391">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -15053,8 +16229,11 @@
       <c r="K392">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L392">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -15092,8 +16271,11 @@
         <f t="shared" si="27"/>
         <v>0.46999999999999886</v>
       </c>
-    </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L393">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -15128,8 +16310,11 @@
       <c r="K394">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L394">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -15167,8 +16352,11 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L395">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -15203,8 +16391,11 @@
       <c r="K396">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L396">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -15242,18 +16433,21 @@
         <f t="shared" si="27"/>
         <v>0.19999999999999574</v>
       </c>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L397">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
